--- a/data/stat probs/udoka azubuike stat probs - condition.xlsx
+++ b/data/stat probs/udoka azubuike stat probs - condition.xlsx
@@ -19,18 +19,18 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="0 before 2023 full" sheetId="10" state="visible" r:id="rId10"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1 after 2023 regular" sheetId="11" state="visible" r:id="rId11"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1 after 2023 full" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sun 2023 regular" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sun 2023 full" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="den 2023 regular" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="den 2023 full" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1 before 2023 regular" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1 before 2023 full" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 after 2023 regular" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 after 2023 full" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="okc 2023 regular" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="okc 2023 full" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 before 2023 regular" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 before 2023 full" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="den 2023 regular" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="den 2023 full" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1 before 2023 regular" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1 before 2023 full" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 after 2023 regular" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 after 2023 full" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="okc 2023 regular" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="okc 2023 full" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 before 2023 regular" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 before 2023 full" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="tue 2023 regular" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="tue 2023 full" sheetId="24" state="visible" r:id="rId24"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="bkn 2023 regular" sheetId="25" state="visible" r:id="rId25"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="bkn 2023 full" sheetId="26" state="visible" r:id="rId26"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="4 after 2023 regular" sheetId="27" state="visible" r:id="rId27"/>
@@ -579,22 +579,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>69</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -1093,22 +1093,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -1575,22 +1575,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -2057,22 +2057,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -2476,7 +2476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2539,22 +2539,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -2571,10 +2571,10 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D3" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>100</v>
@@ -2603,10 +2603,10 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D4" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>100</v>
@@ -2635,16 +2635,16 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D5" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -2667,16 +2667,16 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D6" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -2769,10 +2769,10 @@
         <v>50</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F9" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -2801,10 +2801,10 @@
         <v>50</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F10" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -2827,16 +2827,16 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F11" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -2859,16 +2859,16 @@
         <v>10</v>
       </c>
       <c r="C12" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F12" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -2891,16 +2891,16 @@
         <v>11</v>
       </c>
       <c r="C13" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F13" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -2912,38 +2912,6 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>12</v>
-      </c>
-      <c r="C14" t="n">
-        <v>50</v>
-      </c>
-      <c r="D14" t="n">
-        <v>50</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>100</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>100</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
         <v>100</v>
       </c>
     </row>
@@ -2958,7 +2926,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3021,22 +2989,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -3053,10 +3021,10 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D3" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>100</v>
@@ -3085,10 +3053,10 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D4" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>100</v>
@@ -3117,16 +3085,16 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D5" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -3149,16 +3117,16 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D6" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -3251,10 +3219,10 @@
         <v>50</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F9" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -3283,10 +3251,10 @@
         <v>50</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F10" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -3309,16 +3277,16 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F11" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -3341,16 +3309,16 @@
         <v>10</v>
       </c>
       <c r="C12" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F12" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -3373,16 +3341,16 @@
         <v>11</v>
       </c>
       <c r="C13" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F13" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -3394,38 +3362,6 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>12</v>
-      </c>
-      <c r="C14" t="n">
-        <v>50</v>
-      </c>
-      <c r="D14" t="n">
-        <v>50</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>100</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>100</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
         <v>100</v>
       </c>
     </row>
@@ -3503,22 +3439,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -3605,10 +3541,10 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="F5" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -3637,10 +3573,10 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="F6" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -3663,10 +3599,10 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="D7" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="E7" t="n">
         <v>50</v>
@@ -3695,10 +3631,10 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="D8" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="E8" t="n">
         <v>50</v>
@@ -3791,10 +3727,10 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="D11" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="E11" t="n">
         <v>50</v>
@@ -3829,10 +3765,10 @@
         <v>100</v>
       </c>
       <c r="E12" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="F12" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -3861,10 +3797,10 @@
         <v>100</v>
       </c>
       <c r="E13" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="F13" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -3953,22 +3889,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -4055,10 +3991,10 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="F5" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -4087,10 +4023,10 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="F6" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -4113,10 +4049,10 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="D7" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="E7" t="n">
         <v>50</v>
@@ -4145,10 +4081,10 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="D8" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="E8" t="n">
         <v>50</v>
@@ -4241,10 +4177,10 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="D11" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="E11" t="n">
         <v>50</v>
@@ -4279,10 +4215,10 @@
         <v>100</v>
       </c>
       <c r="E12" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="F12" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -4311,10 +4247,10 @@
         <v>100</v>
       </c>
       <c r="E13" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="F13" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -4340,7 +4276,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4403,22 +4339,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -4435,22 +4371,22 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E3" t="n">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G3" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="H3" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -4467,16 +4403,16 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E4" t="n">
-        <v>100</v>
+        <v>56</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -4499,16 +4435,16 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>100</v>
+        <v>69</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="E5" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -4531,16 +4467,16 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>100</v>
+        <v>69</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="E6" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -4563,16 +4499,16 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>75</v>
+        <v>31</v>
       </c>
       <c r="D7" t="n">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="E7" t="n">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="F7" t="n">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -4595,16 +4531,16 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
+        <v>25</v>
+      </c>
+      <c r="D8" t="n">
         <v>75</v>
       </c>
-      <c r="D8" t="n">
+      <c r="E8" t="n">
         <v>25</v>
       </c>
-      <c r="E8" t="n">
-        <v>50</v>
-      </c>
       <c r="F8" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -4627,16 +4563,16 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="D9" t="n">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="E9" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="F9" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -4659,16 +4595,16 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="D10" t="n">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="E10" t="n">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="F10" t="n">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -4691,16 +4627,16 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D11" t="n">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="E11" t="n">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="F11" t="n">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -4723,16 +4659,16 @@
         <v>10</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D12" t="n">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E12" t="n">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="F12" t="n">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -4755,16 +4691,16 @@
         <v>11</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D13" t="n">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E13" t="n">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="F13" t="n">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -4776,6 +4712,38 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>6</v>
+      </c>
+      <c r="D14" t="n">
+        <v>94</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>100</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>100</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
         <v>100</v>
       </c>
     </row>
@@ -4790,7 +4758,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4853,22 +4821,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -4885,22 +4853,22 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E3" t="n">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G3" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="H3" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -4917,16 +4885,16 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E4" t="n">
-        <v>100</v>
+        <v>56</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -4949,16 +4917,16 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>100</v>
+        <v>69</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="E5" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -4981,16 +4949,16 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>100</v>
+        <v>69</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="E6" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -5013,16 +4981,16 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>75</v>
+        <v>31</v>
       </c>
       <c r="D7" t="n">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="E7" t="n">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="F7" t="n">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -5045,16 +5013,16 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
+        <v>25</v>
+      </c>
+      <c r="D8" t="n">
         <v>75</v>
       </c>
-      <c r="D8" t="n">
+      <c r="E8" t="n">
         <v>25</v>
       </c>
-      <c r="E8" t="n">
-        <v>50</v>
-      </c>
       <c r="F8" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -5077,16 +5045,16 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="D9" t="n">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="E9" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="F9" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -5109,16 +5077,16 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="D10" t="n">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="E10" t="n">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="F10" t="n">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -5141,16 +5109,16 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D11" t="n">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="E11" t="n">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="F11" t="n">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -5173,16 +5141,16 @@
         <v>10</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D12" t="n">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E12" t="n">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="F12" t="n">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -5205,16 +5173,16 @@
         <v>11</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D13" t="n">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E13" t="n">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="F13" t="n">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -5226,6 +5194,38 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>6</v>
+      </c>
+      <c r="D14" t="n">
+        <v>94</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>100</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>100</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
         <v>100</v>
       </c>
     </row>
@@ -5303,16 +5303,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -5335,22 +5335,22 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="D3" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="F3" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -5367,16 +5367,16 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="D4" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>56</v>
+        <v>100</v>
       </c>
       <c r="F4" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -5399,16 +5399,16 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>69</v>
+        <v>100</v>
       </c>
       <c r="D5" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="F5" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -5431,16 +5431,16 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>69</v>
+        <v>100</v>
       </c>
       <c r="D6" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="F6" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -5463,16 +5463,16 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>31</v>
+        <v>100</v>
       </c>
       <c r="D7" t="n">
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>38</v>
+        <v>100</v>
       </c>
       <c r="F7" t="n">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -5495,16 +5495,16 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="D8" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="F8" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -5527,16 +5527,16 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="D9" t="n">
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="F9" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -5559,16 +5559,16 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="D10" t="n">
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -5591,16 +5591,16 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="D11" t="n">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -5623,16 +5623,16 @@
         <v>10</v>
       </c>
       <c r="C12" t="n">
-        <v>6</v>
+        <v>100</v>
       </c>
       <c r="D12" t="n">
-        <v>94</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -5655,16 +5655,16 @@
         <v>11</v>
       </c>
       <c r="C13" t="n">
-        <v>6</v>
+        <v>100</v>
       </c>
       <c r="D13" t="n">
-        <v>94</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -5687,10 +5687,10 @@
         <v>12</v>
       </c>
       <c r="C14" t="n">
-        <v>6</v>
+        <v>100</v>
       </c>
       <c r="D14" t="n">
-        <v>94</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -5785,22 +5785,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>69</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -6299,16 +6299,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -6331,22 +6331,22 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="D3" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="F3" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -6363,16 +6363,16 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="D4" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>56</v>
+        <v>100</v>
       </c>
       <c r="F4" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -6395,16 +6395,16 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>69</v>
+        <v>100</v>
       </c>
       <c r="D5" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="F5" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -6427,16 +6427,16 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>69</v>
+        <v>100</v>
       </c>
       <c r="D6" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="F6" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -6459,16 +6459,16 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>31</v>
+        <v>100</v>
       </c>
       <c r="D7" t="n">
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>38</v>
+        <v>100</v>
       </c>
       <c r="F7" t="n">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -6491,16 +6491,16 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="D8" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="F8" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -6523,16 +6523,16 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="D9" t="n">
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="F9" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -6555,16 +6555,16 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="D10" t="n">
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -6587,16 +6587,16 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="D11" t="n">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -6619,16 +6619,16 @@
         <v>10</v>
       </c>
       <c r="C12" t="n">
-        <v>6</v>
+        <v>100</v>
       </c>
       <c r="D12" t="n">
-        <v>94</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -6651,16 +6651,16 @@
         <v>11</v>
       </c>
       <c r="C13" t="n">
-        <v>6</v>
+        <v>100</v>
       </c>
       <c r="D13" t="n">
-        <v>94</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -6683,10 +6683,10 @@
         <v>12</v>
       </c>
       <c r="C14" t="n">
-        <v>6</v>
+        <v>100</v>
       </c>
       <c r="D14" t="n">
-        <v>94</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -6713,970 +6713,6 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>val</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob over</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob under</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob over</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob under</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob over</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob under</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob over</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob under</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>100</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>100</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>100</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>100</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>100</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>100</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>100</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="n">
-        <v>100</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>100</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>100</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" t="n">
-        <v>100</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>100</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>100</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>4</v>
-      </c>
-      <c r="C6" t="n">
-        <v>100</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>100</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>100</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>5</v>
-      </c>
-      <c r="C7" t="n">
-        <v>100</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>100</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>100</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>6</v>
-      </c>
-      <c r="C8" t="n">
-        <v>100</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>100</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>100</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>7</v>
-      </c>
-      <c r="C9" t="n">
-        <v>100</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>100</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>100</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>8</v>
-      </c>
-      <c r="C10" t="n">
-        <v>100</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>100</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>100</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>9</v>
-      </c>
-      <c r="C11" t="n">
-        <v>100</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>100</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>100</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>10</v>
-      </c>
-      <c r="C12" t="n">
-        <v>100</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>100</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>100</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>11</v>
-      </c>
-      <c r="C13" t="n">
-        <v>100</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>100</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>100</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>12</v>
-      </c>
-      <c r="C14" t="n">
-        <v>100</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>100</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>100</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>100</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>val</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob over</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob under</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob over</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob under</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob over</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob under</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob over</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob under</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>100</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>100</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>100</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>100</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>100</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>100</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>100</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="n">
-        <v>100</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>100</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>100</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" t="n">
-        <v>100</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>100</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>100</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>4</v>
-      </c>
-      <c r="C6" t="n">
-        <v>100</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>100</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>100</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>5</v>
-      </c>
-      <c r="C7" t="n">
-        <v>100</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>100</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>100</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>6</v>
-      </c>
-      <c r="C8" t="n">
-        <v>100</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>100</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>100</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>7</v>
-      </c>
-      <c r="C9" t="n">
-        <v>100</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>100</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>100</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>8</v>
-      </c>
-      <c r="C10" t="n">
-        <v>100</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>100</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>100</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>9</v>
-      </c>
-      <c r="C11" t="n">
-        <v>100</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>100</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>100</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>10</v>
-      </c>
-      <c r="C12" t="n">
-        <v>100</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>100</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>100</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>11</v>
-      </c>
-      <c r="C13" t="n">
-        <v>100</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>100</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>100</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>12</v>
-      </c>
-      <c r="C14" t="n">
-        <v>100</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>100</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>100</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>100</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7745,22 +6781,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -8190,7 +7226,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8259,22 +7295,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -8696,6 +7732,522 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>val</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob over</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob under</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob over</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob under</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob over</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob under</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob over</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob under</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>25</v>
+      </c>
+      <c r="D2" t="n">
+        <v>75</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>100</v>
+      </c>
+      <c r="G2" t="n">
+        <v>75</v>
+      </c>
+      <c r="H2" t="n">
+        <v>25</v>
+      </c>
+      <c r="I2" t="n">
+        <v>100</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>75</v>
+      </c>
+      <c r="D3" t="n">
+        <v>25</v>
+      </c>
+      <c r="E3" t="n">
+        <v>100</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>25</v>
+      </c>
+      <c r="H3" t="n">
+        <v>75</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>75</v>
+      </c>
+      <c r="D4" t="n">
+        <v>25</v>
+      </c>
+      <c r="E4" t="n">
+        <v>75</v>
+      </c>
+      <c r="F4" t="n">
+        <v>25</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>100</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>100</v>
+      </c>
+      <c r="E5" t="n">
+        <v>50</v>
+      </c>
+      <c r="F5" t="n">
+        <v>50</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>100</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>100</v>
+      </c>
+      <c r="E6" t="n">
+        <v>25</v>
+      </c>
+      <c r="F6" t="n">
+        <v>75</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>100</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>100</v>
+      </c>
+      <c r="E7" t="n">
+        <v>25</v>
+      </c>
+      <c r="F7" t="n">
+        <v>75</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>100</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>val</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob over</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob under</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob over</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob under</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob over</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob under</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob over</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob under</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>25</v>
+      </c>
+      <c r="D2" t="n">
+        <v>75</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>100</v>
+      </c>
+      <c r="G2" t="n">
+        <v>75</v>
+      </c>
+      <c r="H2" t="n">
+        <v>25</v>
+      </c>
+      <c r="I2" t="n">
+        <v>100</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>75</v>
+      </c>
+      <c r="D3" t="n">
+        <v>25</v>
+      </c>
+      <c r="E3" t="n">
+        <v>100</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>25</v>
+      </c>
+      <c r="H3" t="n">
+        <v>75</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>75</v>
+      </c>
+      <c r="D4" t="n">
+        <v>25</v>
+      </c>
+      <c r="E4" t="n">
+        <v>75</v>
+      </c>
+      <c r="F4" t="n">
+        <v>25</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>100</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>100</v>
+      </c>
+      <c r="E5" t="n">
+        <v>50</v>
+      </c>
+      <c r="F5" t="n">
+        <v>50</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>100</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>100</v>
+      </c>
+      <c r="E6" t="n">
+        <v>25</v>
+      </c>
+      <c r="F6" t="n">
+        <v>75</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>100</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>100</v>
+      </c>
+      <c r="E7" t="n">
+        <v>25</v>
+      </c>
+      <c r="F7" t="n">
+        <v>75</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>100</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
         <v>100</v>
       </c>
     </row>
@@ -8779,10 +8331,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -9005,10 +8557,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -9225,22 +8777,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -9707,22 +9259,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -10189,22 +9741,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -10671,22 +10223,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>38</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -11185,22 +10737,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -11667,22 +11219,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -12149,22 +11701,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -12631,22 +12183,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -13145,22 +12697,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -13659,16 +13211,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -14045,16 +13597,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -14431,16 +13983,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -14689,16 +14241,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -14947,22 +14499,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -15461,22 +15013,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>38</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -15975,22 +15527,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -16489,16 +16041,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -16651,16 +16203,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -16813,22 +16365,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -17039,22 +16591,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -17265,16 +16817,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -17491,16 +17043,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -17717,16 +17269,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -17943,16 +17495,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -18175,10 +17727,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -18363,22 +17915,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>13</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -18851,10 +18403,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -19045,10 +18597,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -19175,10 +18727,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -19299,22 +18851,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -19685,22 +19237,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -20077,16 +19629,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -20239,16 +19791,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -20395,16 +19947,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -20685,16 +20237,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -20975,16 +20527,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -21233,22 +20785,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>13</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -21715,16 +21267,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -21979,10 +21531,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -22141,10 +21693,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -22303,10 +21855,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -22465,10 +22017,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -22621,10 +22173,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
         <v>100</v>
@@ -22847,10 +22399,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
         <v>100</v>
@@ -23269,16 +22821,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -23527,22 +23079,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -24009,16 +23561,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -24279,10 +23831,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -24409,10 +23961,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -24527,22 +24079,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -24753,22 +24305,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -25175,16 +24727,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -25337,16 +24889,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -25505,10 +25057,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -25629,22 +25181,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -26117,10 +25669,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -26241,22 +25793,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -26435,22 +25987,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -26629,22 +26181,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -26855,22 +26407,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -27081,16 +26633,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -27307,16 +26859,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -27539,10 +27091,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -27669,10 +27221,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -27793,22 +27345,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -28019,22 +27571,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -28501,22 +28053,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -28727,16 +28279,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -28985,16 +28537,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
